--- a/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14500</v>
+        <v>-4300</v>
       </c>
       <c r="E14" s="3">
         <v>8900</v>
@@ -977,7 +977,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2671000</v>
+        <v>2652200</v>
       </c>
       <c r="E17" s="3">
         <v>2803100</v>
@@ -1010,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>226000</v>
+        <v>244800</v>
       </c>
       <c r="E18" s="3">
         <v>237900</v>
@@ -1058,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>50100</v>
+        <v>31300</v>
       </c>
       <c r="E20" s="3">
         <v>29800</v>
@@ -1454,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-50100</v>
+        <v>-31300</v>
       </c>
       <c r="E32" s="3">
         <v>-29800</v>

--- a/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,158 +662,170 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43435</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43071</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42707</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42336</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41972</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41608</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41244</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40880</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2790300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2897000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3041000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2306000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2094600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2083700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2104500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2047000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1886200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1444100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2032600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2088000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2207100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3398300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1488800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1515600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1571200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1476800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1369000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1040300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>757700</v>
+      </c>
+      <c r="E10" s="3">
         <v>809000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>833900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1092200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>605800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>568000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>533300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>570200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>517300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>403800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>36600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20800</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>51500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>45100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2572000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2652200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2803100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2186500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1896300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1917800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2006100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1896600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1777700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1335000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E18" s="3">
         <v>244800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>119500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>198400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>165800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>98300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>150400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>108600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E20" s="3">
         <v>31300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>383900</v>
+      </c>
+      <c r="E21" s="3">
         <v>417300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>412800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>191600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>268500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>238700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>169600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>208300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>166800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>152300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E22" s="3">
         <v>103300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>111000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>43700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E23" s="3">
         <v>172800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>156700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>163400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>138300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>79300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>127500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>102400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E24" s="3">
         <v>49400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-48400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>48900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E26" s="3">
         <v>123400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>205100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>114500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>82500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>45000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E27" s="3">
         <v>130800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>213200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>59400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>121700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>49800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>95600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1358,32 +1418,35 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-42000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1300</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>57600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8800</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-31300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E33" s="3">
         <v>130800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>171200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>59400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>86700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>96800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>125600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>89100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E35" s="3">
         <v>130800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>171200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>59400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>86700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>49800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>96800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>125600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>89100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43435</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43071</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42707</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42336</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41972</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41608</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41244</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40880</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>100500</v>
+      </c>
+      <c r="E41" s="3">
         <v>112200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>150800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>194400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>142200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>119200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>155100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>154600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1713,240 +1802,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>533600</v>
+      </c>
+      <c r="E43" s="3">
         <v>519400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>521500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>498000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>375400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>395800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>356400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>351900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>333300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>229300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>323200</v>
+      </c>
+      <c r="E44" s="3">
         <v>337300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>348500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>359000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>247400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>248500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>251300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>221500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>208500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E45" s="3">
         <v>64500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>93100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>116700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1019800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1033400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1089900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1157600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>811300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>801100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>765100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>794700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>799300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>596600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E47" s="3">
         <v>111100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>108500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>50800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>699200</v>
+      </c>
+      <c r="E48" s="3">
         <v>629800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1940100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>670200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1608400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>512900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>502600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>434400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>329000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>242600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2068000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2081200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2213800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2338500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>571600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>567200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>451900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>482500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>487700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>168500</v>
+      </c>
+      <c r="E52" s="3">
         <v>130200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>365700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>129200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>262300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>107100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4036700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3985700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4176300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4373200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2055900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2042300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1869000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1873000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1786300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1227700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E57" s="3">
         <v>298900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>273400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>268500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>163000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>177900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>174500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>201600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>163100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E58" s="3">
         <v>80700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>106000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>117500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>52700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E59" s="3">
         <v>162600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>242500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>183500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>115600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>138600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>141900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>99800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>530100</v>
+      </c>
+      <c r="E60" s="3">
         <v>542200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>546100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>504900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>391800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>349500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>317200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>360800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>350100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>255000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1898400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2141500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2398900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>585800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>669600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>547700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>472300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>475100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>179600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>367700</v>
+      </c>
+      <c r="E62" s="3">
         <v>322400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>417600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>145600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>109000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>104800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2655400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2763400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3023500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3321800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1118000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1169300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>979000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>943000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1008000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>522500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1474400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1384400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1286300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1127000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1090900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>994600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>933800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>907300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>830000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>721000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1381300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1222300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1152800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1051400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>937900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>872900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>890000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>930100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>778300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>705200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43435</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43071</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42707</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42336</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41972</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41608</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41244</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40880</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>123700</v>
+      </c>
+      <c r="E81" s="3">
         <v>130800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>171200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>59400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>86700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>49800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>96800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>125600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>89100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E83" s="3">
         <v>141200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>87300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>77700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>61700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E89" s="3">
         <v>269200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>253300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>166300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>195700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>205200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>133800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-139800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-124300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="E94" s="3">
         <v>7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-111500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-258800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-160000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-133200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-326500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-32400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-27500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-25700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-23100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-239200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-315000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-228600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1684700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>104200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42800</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>52200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-77600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-45300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>FUL</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,170 +665,182 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E7" s="2">
         <v>44163</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43435</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43071</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42707</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42336</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41972</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41608</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41244</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40880</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3278000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2790300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2897000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3041000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2306000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2094600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2083700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2104500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2047000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1886200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1444100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2432900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2032600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2088000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2207100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3398300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1488800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1515600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1571200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1476800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1369000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1040300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>845100</v>
+      </c>
+      <c r="E10" s="3">
         <v>757700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>809000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>833900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1092200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>605800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>568000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>533300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>570200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>517300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>403800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +855,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>36600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20800</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,45 +930,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>4600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>51500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>45100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,9 +1008,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3025400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2572000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2652200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2803100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2186500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1896300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1917800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2006100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1896600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1777700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1335000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E18" s="3">
         <v>218300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>244800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>237900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>119500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>198400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>165800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>98300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>150400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>108600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>109100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1120,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E20" s="3">
         <v>26800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>438100</v>
+      </c>
+      <c r="E21" s="3">
         <v>383900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>417300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>412800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>191600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>268500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>238700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>169600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>208300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>166800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>152300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E22" s="3">
         <v>86800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>103300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>111000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>43700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E23" s="3">
         <v>158400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>172800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>156700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>163400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>138300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>79300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>127500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E24" s="3">
         <v>41900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>49400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-48400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>48900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E26" s="3">
         <v>116400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>123400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>205100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>114500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>82500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E27" s="3">
         <v>123700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>130800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>213200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>121700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>49800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>95600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1408,45 +1468,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-42000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1300</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>57600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>8800</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1480,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1516,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-26800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E33" s="3">
         <v>123700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>130800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>171200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>121700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>86700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>49800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>96800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>89100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1624,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E35" s="3">
         <v>123700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>130800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>171200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>121700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>86700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>49800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>96800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>89100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E38" s="2">
         <v>44163</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43435</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43071</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42707</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42336</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41972</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41608</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41244</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40880</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1718,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1734,44 +1822,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E41" s="3">
         <v>100500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>112200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>194400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>142200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>119200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>154600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1805,261 +1897,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>643500</v>
+      </c>
+      <c r="E43" s="3">
         <v>533600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>519400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>521500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>498000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>375400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>395800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>356400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>351900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>333300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>229300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>448400</v>
+      </c>
+      <c r="E44" s="3">
         <v>323200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>337300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>348500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>359000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>247400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>248500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>251300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>221500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>208500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>116400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E45" s="3">
         <v>62400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>64500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>116700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1019800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1033400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1089900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1157600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>811300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>801100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>765100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>794700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>799300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>596600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E47" s="3">
         <v>81300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>111100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>108500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>50100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>728100</v>
+      </c>
+      <c r="E48" s="3">
         <v>699200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>629800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1940100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>670200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1608400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>512900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>502600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>434400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>329000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>242600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1985900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2068000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2081200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2213800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2338500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>571600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>567200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>451900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>482500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>487700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2093,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2129,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>255100</v>
+      </c>
+      <c r="E52" s="3">
         <v>168500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>365700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>129200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>262300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>110300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>88400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2201,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4274500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4036700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3985700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4176300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4373200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2055900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2042300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1869000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1873000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1786300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1227700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2254,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2270,224 +2402,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>500300</v>
+      </c>
+      <c r="E57" s="3">
         <v>316500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>298900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>273400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>268500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>163000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>177900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>174500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>201600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>163100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>104400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E58" s="3">
         <v>16900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>80700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>106000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>117500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>53300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>52700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>210400</v>
+      </c>
+      <c r="E59" s="3">
         <v>196700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>242500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>183500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>115600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>138600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>141900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>99800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>736900</v>
+      </c>
+      <c r="E60" s="3">
         <v>530100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>542200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>546100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>504900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>391800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>349500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>317200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>360800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>350100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>255000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1757000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1898400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2141500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2398900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>585800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>669600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>547700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>472300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>475100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>179600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>341300</v>
+      </c>
+      <c r="E62" s="3">
         <v>367700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>322400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>417600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>145600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>109000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>104800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2521,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2557,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2593,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2677800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2655400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2763400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3023500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3321800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1118000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1169300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>979000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>943000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1008000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>522500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2646,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2681,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2717,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2753,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2789,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1600600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1474400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1384400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1286300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1127000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1090900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>994600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>933800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>907300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>830000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>721000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2861,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2897,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2933,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1596800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1381300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1222300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1152800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1051400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>937900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>872900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>890000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>930100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>778300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>705200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3005,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44527</v>
+      </c>
+      <c r="E80" s="2">
         <v>44163</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43435</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43071</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42707</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42336</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41972</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41608</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41244</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40880</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E81" s="3">
         <v>123700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>130800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>171200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>121700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>86700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>49800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>96800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>89100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3099,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E83" s="3">
         <v>138800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>141200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>87300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>77700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>75300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>61700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3170,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3206,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3242,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3278,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3314,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E89" s="3">
         <v>331600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>269200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>253300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>166300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>195700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>205200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>133800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3367,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-139800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-124300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3438,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3474,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-109500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-111500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-258800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-160000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-133200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-326500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3527,44 +3762,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-33500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-32400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-31100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-29600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-27500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-25700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-16500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3598,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3634,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3670,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-239200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-315000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-228600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1684700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>104200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>273900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42800</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>52200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>41600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-77600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-45300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FUL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>FUL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E7" s="2">
         <v>44527</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44163</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43435</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43071</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42707</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42336</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41972</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41608</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41244</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40880</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3749200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3278000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2790300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2897000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3041000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2306000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2094600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2083700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2104500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2047000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1886200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1444100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2785600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2432900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2032600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2088000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2207100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3398300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1488800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1515600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1571200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1476800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1369000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1040300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>963500</v>
+      </c>
+      <c r="E10" s="3">
         <v>845100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>757700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>809000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>833900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1092200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>605800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>568000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>533300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>570200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>517300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>403800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,47 +869,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E12" s="3">
         <v>39300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>35500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20800</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,48 +950,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>51500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>45100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,9 +1034,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3429800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3025400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2572000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2652200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2803100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2186500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1896300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1917800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2006100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1896600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1777700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1335000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E18" s="3">
         <v>252600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>218300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>244800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>237900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>119500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>198400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>165800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>150400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>108600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>109100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,203 +1154,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E20" s="3">
         <v>42300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E21" s="3">
         <v>438100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>383900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>417300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>412800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>191600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>268500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>238700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>169600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>208300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>166800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E22" s="3">
         <v>78100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>86800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>103300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>111000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>43700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>251900</v>
+      </c>
+      <c r="E23" s="3">
         <v>216900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>158400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>172800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>156700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>60600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>163400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>138300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>127500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>102400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E24" s="3">
         <v>63000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>49400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-48400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>48900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1354,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E26" s="3">
         <v>153800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>116400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>123400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>205100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>114500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>82500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E27" s="3">
         <v>161400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>123700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>130800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>213200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>121700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>95600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>80300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1471,48 +1529,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-42000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1300</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>57600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8800</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1549,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1588,87 +1655,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-42300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E33" s="3">
         <v>161400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>123700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>130800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>171200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>121700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>86700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>96800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1705,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E35" s="3">
         <v>161400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>123700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>130800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>171200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>121700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>86700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>96800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E38" s="2">
         <v>44527</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44163</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43435</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43071</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42707</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42336</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41972</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41608</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41244</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40880</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1806,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1823,47 +1909,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E41" s="3">
         <v>61800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>112200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>194400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>142200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>119200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1900,282 +1990,306 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>643700</v>
+      </c>
+      <c r="E43" s="3">
         <v>643500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>533600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>519400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>521500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>498000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>375400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>395800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>356400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>351900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>333300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>229300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>491800</v>
+      </c>
+      <c r="E44" s="3">
         <v>448400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>323200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>337300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>348500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>359000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>247400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>248500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>251300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>221500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>208500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E45" s="3">
         <v>67500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>164800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>116700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>1299400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1221200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1019800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1033400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1089900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1157600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>811300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>801100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>765100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>794700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>799300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>596600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E47" s="3">
         <v>84200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>81300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>111100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>55600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>50800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E48" s="3">
         <v>728100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>699200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>629800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1940100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>670200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1608400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>512900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>502600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>434400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>329000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>242600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>2094700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1985900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2068000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2081200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2213800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2338500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>571600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>567200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>451900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>482500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>487700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2212,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2251,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E52" s="3">
         <v>255100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>168500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>130200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>365700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>129200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>262300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>110300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>88400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2329,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>4463600</v>
+      </c>
+      <c r="E54" s="3">
         <v>4274500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4036700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3985700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4176300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4373200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2055900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2042300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1869000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1873000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1786300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1227700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2386,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2403,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>460700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>316500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>298900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>273400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>268500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>163000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>177900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>201600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>163100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>104400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E58" s="3">
         <v>26100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>106000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>117500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>53300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E59" s="3">
         <v>210400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>196700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>242500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>183500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>162300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>115600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>138600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>141900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>705700</v>
+      </c>
+      <c r="E60" s="3">
         <v>736900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>530100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>542200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>546100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>504900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>391800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>349500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>317200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>360800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>350100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>255000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1743800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1599000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1757000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1898400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2141500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2398900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>585800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>669600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>547700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>472300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>475100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>179600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>403300</v>
+      </c>
+      <c r="E62" s="3">
         <v>341300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>367700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>322400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>417600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>197900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>145600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>109000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>104800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2675,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2714,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2753,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>2853500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2677800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2655400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2763400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3023500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3321800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1118000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1169300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>979000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>943000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1008000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>522500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2810,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2848,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2887,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2926,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2965,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>1741400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1600600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1474400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1384400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1286300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1127000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1090900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>994600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>933800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>907300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>830000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>721000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3043,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3082,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3121,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1610200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1596800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1381300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1222300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1152800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1051400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>937900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>872900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>890000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>930100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>778300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>705200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3199,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44898</v>
+      </c>
+      <c r="E80" s="2">
         <v>44527</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44163</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43435</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43071</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42707</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42336</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41972</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41608</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41244</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40880</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E81" s="3">
         <v>161400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>123700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>130800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>171200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>121700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>86700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>96800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3300,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E83" s="3">
         <v>143200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>138800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>141200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>87300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>77700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>75300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>61700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3377,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3416,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3455,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3494,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3533,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>256500</v>
+      </c>
+      <c r="E89" s="3">
         <v>213300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>331600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>269200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>253300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>166300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>195700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>205200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>133800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3590,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-96100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-124300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3667,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3706,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-375300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-109500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-111500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-258800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-160000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-133200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-326500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-37800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3763,47 +3996,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-34900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-33500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-32400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-29600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-27500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-25700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-23100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-19300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-16500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3840,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3879,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3918,124 +4161,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-154100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-239200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-315000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-228600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1684700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-52600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>104200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>55000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>273900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42800</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-38700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-38600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>52200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>41600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-77600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
